--- a/xlsx/约翰·洛克_intext.xlsx
+++ b/xlsx/约翰·洛克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="734">
   <si>
     <t>约翰·洛克</t>
   </si>
@@ -29,31 +29,31 @@
     <t>约翰·洛克 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_约翰·洛克</t>
+    <t>政策_政策_政治学_约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/17%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>17世紀哲學</t>
+    <t>17世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經驗主義</t>
+    <t>经验主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E8%AD%98%E8%AB%96</t>
   </si>
   <si>
-    <t>認識論</t>
+    <t>认识论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神哲學</t>
+    <t>精神哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%96%8B%E5%9C%8B%E5%85%83%E5%8B%B3</t>
   </si>
   <si>
-    <t>美國開國元勳</t>
+    <t>美国开国元勳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%91%9F%C2%B7%E5%8F%94%E6%9C%AC%E5%8D%8E</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%88%BE%E6%B3%B0</t>
   </si>
   <si>
-    <t>伏爾泰</t>
+    <t>伏尔泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E9%9B%85%E5%90%84%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>蘇格蘭啟蒙運動</t>
+    <t>苏格兰启蒙运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>美國獨立宣言</t>
+    <t>美国独立宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E9%BA%BB%E5%AF%A6%E9%83%A1</t>
   </si>
   <si>
-    <t>森麻實郡</t>
+    <t>森麻实郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E7%A6%AE</t>
   </si>
   <si>
-    <t>洗禮</t>
+    <t>洗礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E5%9F%BA%E7%9D%A3%E5%A0%82%E5%AD%A6%E9%99%A2</t>
@@ -287,31 +287,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>皇家學會</t>
+    <t>皇家学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%B3%A2%E7%BE%A9%E8%80%B3</t>
   </si>
   <si>
-    <t>羅伯特·波義耳</t>
+    <t>罗伯特·波义耳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·胡克</t>
+    <t>罗伯特·胡克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>輝格黨 (英國)</t>
+    <t>辉格党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B3%95%E5%AE%98_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>大法官 (英國)</t>
+    <t>大法官 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E5%B0%8D</t>
   </si>
   <si>
-    <t>校對</t>
+    <t>校对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E4%B8%89%E4%B8%96_(%E5%A5%A5%E5%85%B0%E6%B2%BB)</t>
@@ -365,19 +365,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E8%BE%9F</t>
   </si>
   <si>
-    <t>復辟</t>
+    <t>复辟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E7%81%AB</t>
   </si>
   <si>
-    <t>倫敦大火</t>
+    <t>伦敦大火</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E7%98%9F%E7%96%AB</t>
   </si>
   <si>
-    <t>倫敦大瘟疫</t>
+    <t>伦敦大瘟疫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國教會</t>
+    <t>英国国教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%90%86%E8%A7%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人類理解論</t>
+    <t>人类理解论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E7%89%B9%E5%BC%97%E9%87%8C%E5%BE%B7%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E8%8E%B1%E5%B8%83%E5%B0%BC%E8%8C%A8%E5%A5%96</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E4%BA%8C%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>詹姆斯二世 (英格蘭)</t>
+    <t>詹姆斯二世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -527,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81</t>
   </si>
   <si>
-    <t>聖奧古斯丁</t>
+    <t>圣奥古斯丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E8%A6%BA</t>
   </si>
   <si>
-    <t>感覺</t>
+    <t>感觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%BC%AB%E8%AF%9D</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>Template talk-啟蒙時代</t>
+    <t>Template talk-启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
@@ -611,9 +611,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>经验主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6%E6%B4%BE</t>
   </si>
   <si>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%98%8E%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>開明專制</t>
+    <t>开明专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%9C%BA</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
@@ -779,9 +776,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E5%B0%94%E6%B3%B0</t>
   </si>
   <si>
-    <t>伏尔泰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B2%83%E5%B0%94%E5%A4%AB%E5%86%88%C2%B7%E5%86%AF%C2%B7%E6%AD%8C%E5%BE%B7</t>
   </si>
   <si>
@@ -827,9 +821,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%B3%A2%E4%B9%89%E8%80%B3</t>
   </si>
   <si>
-    <t>罗伯特·波义耳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E4%BC%AF%E5%85%8B</t>
   </si>
   <si>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%96%A9%E9%9B%B7%C2%B7%E8%B2%9D%E5%8D%A1%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>切薩雷·貝卡里亞</t>
+    <t>切萨雷·贝卡里亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gaetano_Filangieri</t>
@@ -947,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>約瑟夫·布拉克</t>
+    <t>约瑟夫·布拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%8C%85%E6%96%AF%E5%A8%81%E5%B0%94</t>
@@ -971,13 +962,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E5%85%8B</t>
   </si>
   <si>
-    <t>罗伯特·胡克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%93%88%E5%A5%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>法蘭西斯·哈奇森</t>
+    <t>法兰西斯·哈奇森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
@@ -1013,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%A2%85%E6%A3%AE</t>
   </si>
   <si>
-    <t>喬治·梅森</t>
+    <t>乔治·梅森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
@@ -1121,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%AB%BE%E6%80%9D%C2%B7%E6%87%B7%E7%89%B9%E9%BB%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾弗雷德·諾思·懷特黑德</t>
+    <t>阿尔弗雷德·诺思·怀特黑德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
@@ -1247,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>形而上學家列表</t>
+    <t>形而上学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8A%A8%E7%90%86%E8%AE%BA</t>
@@ -1265,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AE%BA</t>
@@ -1325,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%9A%84%E6%84%8F%E7%BE%A9</t>
   </si>
   <si>
-    <t>生命的意義</t>
+    <t>生命的意义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%83%E8%AE%BA</t>
@@ -1355,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>實在論</t>
+    <t>实在论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E4%B8%BB%E4%B9%89</t>
@@ -1385,19 +1373,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>科學實在論</t>
+    <t>科学实在论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E6%88%91%E8%AB%96</t>
   </si>
   <si>
-    <t>唯我論</t>
+    <t>唯我论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>主觀主義</t>
+    <t>主观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Substance_theory</t>
@@ -1469,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>實體</t>
+    <t>实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%B4%A8</t>
@@ -1487,7 +1475,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>經驗</t>
+    <t>经验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hypostatic_abstraction</t>
@@ -1511,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%B8%80%E6%80%A7%E8%88%87%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>同一性與變化</t>
+    <t>同一性与变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF</t>
@@ -1589,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E9%AB%94</t>
   </si>
   <si>
-    <t>客體</t>
+    <t>客体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E5%BC%8F</t>
@@ -1637,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%B5%E9%AD%82</t>
@@ -1685,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E8%A7%80%E6%B8%AC%E6%80%A7</t>
   </si>
   <si>
-    <t>不可觀測性</t>
+    <t>不可观测性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC_(%E4%BC%A6%E7%90%86%E5%AD%A6)</t>
@@ -1697,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
   </si>
   <si>
-    <t>價值論</t>
+    <t>价值论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E5%AD%A6</t>
@@ -1709,13 +1697,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%AD%B8</t>
   </si>
   <si>
-    <t>知識學</t>
+    <t>知识学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%A8%AD</t>
   </si>
   <si>
-    <t>後設</t>
+    <t>后设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E4%BD%93%E8%AE%BA_(%E5%93%B2%E5%AD%A6)</t>
@@ -1727,9 +1715,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
-    <t>精神哲学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
@@ -1769,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E8%AB%96%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>知識論者列表</t>
+    <t>知识论者列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -1793,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%9C%B1%E7%88%BE%E6%96%AF%C2%B7%E8%89%BE%E8%80%B6%E7%88%BE</t>
   </si>
   <si>
-    <t>艾爾弗雷德·朱爾斯·艾耶爾</t>
+    <t>艾尔弗雷德·朱尔斯·艾耶尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Laurence_BonJour</t>
@@ -1829,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%A0%BC%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>保羅·格萊斯</t>
+    <t>保罗·格莱斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E4%BC%A6%C2%B7%E5%A5%A5%E8%B4%9D%C2%B7%E5%85%8B%E5%B0%94%E5%87%AF%E9%83%AD%E5%B0%94</t>
@@ -1883,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AC%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>可謬論</t>
+    <t>可谬论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_epistemology</t>
@@ -1895,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>信仰主義</t>
+    <t>信仰主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Foundationalism</t>
@@ -1913,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%85%A8%E8%A7%80</t>
   </si>
   <si>
-    <t>整全觀</t>
+    <t>整全观</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Infinitism</t>
@@ -1961,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%84%E5%8E%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>還原主義</t>
+    <t>还原主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reliabilism</t>
@@ -1985,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%9E%8B%E8%AB%96</t>
   </si>
   <si>
-    <t>理型論</t>
+    <t>理型论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transcendental_idealism</t>
@@ -1997,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E8%AE%8A%E8%AB%96</t>
   </si>
   <si>
-    <t>均變論</t>
+    <t>均变论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%AA%8C</t>
@@ -2009,13 +1994,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>哲學分析</t>
+    <t>哲学分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90-%E7%B6%9C%E5%90%88%E5%8D%80%E5%88%A5</t>
   </si>
   <si>
-    <t>分析-綜合區別</t>
+    <t>分析-综合区别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%BF%B5</t>
@@ -2027,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AD%98</t>
   </si>
   <si>
-    <t>常識</t>
+    <t>常识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E8%BF%B0%E6%80%A7%E7%9F%A5%E8%AF%86</t>
@@ -2075,7 +2060,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%BF%83%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>他心問題</t>
+    <t>他心问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E9%A2%98</t>
@@ -2141,7 +2126,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2159,7 +2144,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2177,7 +2162,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2201,13 +2186,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5473,7 +5458,7 @@
         <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -5499,10 +5484,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5528,10 +5513,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5557,10 +5542,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5586,10 +5571,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5615,10 +5600,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5702,10 +5687,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5731,10 +5716,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5789,10 +5774,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5818,10 +5803,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>11</v>
@@ -5876,10 +5861,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5905,10 +5890,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5934,10 +5919,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5963,10 +5948,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>5</v>
@@ -5992,10 +5977,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6021,10 +6006,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6050,10 +6035,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6079,10 +6064,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6108,10 +6093,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6137,10 +6122,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6166,10 +6151,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6195,10 +6180,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6224,10 +6209,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6253,10 +6238,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6282,10 +6267,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6311,10 +6296,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6340,10 +6325,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6398,10 +6383,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6427,10 +6412,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6456,10 +6441,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6485,10 +6470,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6543,10 +6528,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6572,10 +6557,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6601,10 +6586,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6630,10 +6615,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6659,10 +6644,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6688,10 +6673,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6717,10 +6702,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6746,10 +6731,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6775,10 +6760,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6804,10 +6789,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6833,10 +6818,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6862,10 +6847,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6891,10 +6876,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6920,10 +6905,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6949,10 +6934,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6978,10 +6963,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7007,10 +6992,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7036,10 +7021,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7065,10 +7050,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7094,10 +7079,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7123,10 +7108,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7152,10 +7137,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7181,10 +7166,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7210,10 +7195,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7239,10 +7224,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7268,10 +7253,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7297,10 +7282,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7326,10 +7311,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7355,10 +7340,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7384,10 +7369,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>94</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7442,10 +7427,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7471,10 +7456,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7529,10 +7514,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7558,10 +7543,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7587,10 +7572,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7616,10 +7601,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7703,10 +7688,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7732,10 +7717,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7790,10 +7775,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7877,10 +7862,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7906,10 +7891,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7935,10 +7920,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7964,10 +7949,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7993,10 +7978,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8022,10 +8007,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8051,10 +8036,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8080,10 +8065,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8109,10 +8094,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8138,10 +8123,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8196,10 +8181,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F194" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8254,10 +8239,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8283,10 +8268,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8312,10 +8297,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8341,10 +8326,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F199" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8370,10 +8355,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F200" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8399,10 +8384,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8428,10 +8413,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F202" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8457,10 +8442,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F203" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8486,10 +8471,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8515,10 +8500,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F205" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8544,10 +8529,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F206" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8573,10 +8558,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F207" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8602,10 +8587,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F208" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8631,10 +8616,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8660,10 +8645,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8689,10 +8674,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F211" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8718,10 +8703,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8747,10 +8732,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8776,10 +8761,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8805,10 +8790,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8834,10 +8819,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8863,10 +8848,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8892,10 +8877,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8921,10 +8906,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8950,10 +8935,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8979,10 +8964,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -9008,10 +8993,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9037,10 +9022,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9066,10 +9051,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9095,10 +9080,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9124,10 +9109,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9153,10 +9138,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9182,10 +9167,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9211,10 +9196,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -9240,10 +9225,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9269,10 +9254,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9298,10 +9283,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9327,10 +9312,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9356,10 +9341,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9385,10 +9370,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9414,10 +9399,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9443,10 +9428,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9472,10 +9457,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9501,10 +9486,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F239" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G239" t="n">
         <v>5</v>
@@ -9530,10 +9515,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F240" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9559,10 +9544,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F241" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9588,10 +9573,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F242" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9617,10 +9602,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F243" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9646,10 +9631,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F244" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9675,10 +9660,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F245" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9704,10 +9689,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F246" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9733,10 +9718,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F247" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9762,10 +9747,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9791,10 +9776,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F249" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9820,10 +9805,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F250" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9849,10 +9834,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F251" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9878,10 +9863,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F252" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9907,10 +9892,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F253" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9936,10 +9921,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F254" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9965,10 +9950,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F255" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9994,10 +9979,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F256" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G256" t="n">
         <v>10</v>
@@ -10023,10 +10008,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F257" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10052,10 +10037,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F258" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -10081,10 +10066,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10110,10 +10095,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G260" t="n">
         <v>12</v>
@@ -10139,10 +10124,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F261" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G261" t="n">
         <v>6</v>
@@ -10168,10 +10153,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F262" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10197,10 +10182,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10226,10 +10211,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10255,10 +10240,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10284,10 +10269,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G266" t="n">
         <v>6</v>
@@ -10313,10 +10298,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10342,10 +10327,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F268" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10371,10 +10356,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10400,10 +10385,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10429,10 +10414,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10458,10 +10443,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F272" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10487,10 +10472,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10516,10 +10501,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -10545,10 +10530,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10574,10 +10559,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10603,10 +10588,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F277" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10632,10 +10617,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F278" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10661,10 +10646,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F279" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10690,10 +10675,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F280" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10719,10 +10704,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F281" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10748,10 +10733,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F282" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10777,10 +10762,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F283" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10806,10 +10791,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F284" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10835,10 +10820,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F285" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10864,10 +10849,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F286" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10893,10 +10878,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F287" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10922,10 +10907,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F288" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10951,10 +10936,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F289" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10980,10 +10965,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F290" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G290" t="n">
         <v>17</v>
@@ -11009,10 +10994,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F291" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11038,10 +11023,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F292" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11067,10 +11052,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11096,10 +11081,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11125,10 +11110,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F295" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11154,10 +11139,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F296" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11183,10 +11168,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F297" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11212,10 +11197,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F298" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11241,10 +11226,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F299" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11270,10 +11255,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F300" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11299,10 +11284,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>24</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11328,10 +11313,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F302" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11357,10 +11342,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F303" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11386,10 +11371,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11415,10 +11400,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11444,10 +11429,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11473,10 +11458,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11531,10 +11516,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F309" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G309" t="n">
         <v>7</v>
@@ -11560,10 +11545,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F310" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11589,10 +11574,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F311" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11618,10 +11603,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F312" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11647,10 +11632,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F313" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11676,10 +11661,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F314" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11705,10 +11690,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F315" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11734,10 +11719,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F316" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11763,10 +11748,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F317" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11792,10 +11777,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F318" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11821,10 +11806,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F319" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11850,10 +11835,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F320" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11879,10 +11864,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F321" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11908,10 +11893,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F322" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11937,10 +11922,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F323" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11966,10 +11951,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F324" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11995,10 +11980,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F325" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12024,10 +12009,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F326" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12053,10 +12038,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F327" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12082,10 +12067,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F328" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12111,10 +12096,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F329" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12140,10 +12125,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F330" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12169,10 +12154,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F331" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12198,10 +12183,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F332" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12227,10 +12212,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F333" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12256,10 +12241,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F334" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12285,10 +12270,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F335" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12314,10 +12299,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F336" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12343,10 +12328,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F337" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12372,10 +12357,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F338" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12401,10 +12386,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F339" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12430,10 +12415,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F340" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12459,10 +12444,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F341" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12488,10 +12473,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F342" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12517,10 +12502,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F343" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12546,10 +12531,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F344" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12575,10 +12560,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F345" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12604,10 +12589,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F346" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12633,10 +12618,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F347" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12662,10 +12647,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F348" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12691,10 +12676,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F349" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12720,10 +12705,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F350" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12749,10 +12734,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F351" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12778,10 +12763,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12807,10 +12792,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F353" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12836,10 +12821,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F354" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -12865,10 +12850,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F355" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -12894,10 +12879,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F356" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12923,10 +12908,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F357" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12952,10 +12937,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F358" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12981,10 +12966,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F359" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13010,10 +12995,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F360" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13039,10 +13024,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F361" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13068,10 +13053,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F362" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13097,10 +13082,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F363" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G363" t="n">
         <v>16</v>
@@ -13126,10 +13111,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F364" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13155,10 +13140,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F365" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13184,10 +13169,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F366" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13213,10 +13198,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F367" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13242,10 +13227,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F368" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13271,10 +13256,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F369" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13300,10 +13285,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F370" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13329,10 +13314,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F371" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13358,10 +13343,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F372" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13387,10 +13372,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F373" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13416,10 +13401,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F374" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13445,10 +13430,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F375" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13474,10 +13459,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F376" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13503,10 +13488,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F377" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G377" t="n">
         <v>5</v>
@@ -13532,10 +13517,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F378" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13561,10 +13546,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F379" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13590,10 +13575,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F380" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13619,10 +13604,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F381" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13648,10 +13633,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F382" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13677,10 +13662,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F383" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13706,10 +13691,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F384" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13735,10 +13720,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F385" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13764,10 +13749,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F386" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13793,10 +13778,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F387" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13822,10 +13807,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F388" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13851,10 +13836,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F389" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13880,10 +13865,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F390" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -13909,10 +13894,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F391" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13938,10 +13923,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F392" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
